--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>aaaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>ccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -388,6 +400,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -38,15 +38,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +380,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -400,18 +400,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -38,15 +38,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -400,18 +400,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
